--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957BD6F-88BB-4460-B339-5F9C7E3D75F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C3CBC-C14A-4E46-833B-A3009F3B70E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>10600</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C3CBC-C14A-4E46-833B-A3009F3B70E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF403FD7-02D3-4D03-A7F1-99906FAD94F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>10600</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF403FD7-02D3-4D03-A7F1-99906FAD94F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A89F8-A812-46C4-A143-7A9D51031CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>instAmount</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <dimension ref="A1:BR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -1026,7 +1029,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A89F8-A812-46C4-A143-7A9D51031CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B443712B-1088-440C-9D3B-18A6C353BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,10 @@
     <t>10600</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1026,10 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B443712B-1088-440C-9D3B-18A6C353BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A6C9B3-A1A8-4D57-A89A-FFCE5DBAE2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -739,71 +739,70 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="20.5546875" customWidth="1"/>
-    <col min="24" max="24" width="21.109375" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" customWidth="1"/>
-    <col min="28" max="28" width="20.44140625" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1"/>
     <col min="29" max="29" width="22" customWidth="1"/>
     <col min="30" max="33" width="8" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" customWidth="1"/>
-    <col min="35" max="38" width="6.5546875" customWidth="1"/>
-    <col min="39" max="39" width="4.6640625" customWidth="1"/>
-    <col min="40" max="40" width="7.33203125" customWidth="1"/>
-    <col min="41" max="41" width="7.21875" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" customWidth="1"/>
+    <col min="35" max="38" width="6.5703125" customWidth="1"/>
+    <col min="39" max="39" width="4.7109375" customWidth="1"/>
+    <col min="40" max="41" width="7.28515625" customWidth="1"/>
     <col min="42" max="42" width="10" customWidth="1"/>
-    <col min="43" max="43" width="12.5546875" customWidth="1"/>
+    <col min="43" max="43" width="12.5703125" customWidth="1"/>
     <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="17.6640625" customWidth="1"/>
-    <col min="46" max="46" width="18.33203125" customWidth="1"/>
-    <col min="47" max="47" width="20.77734375" customWidth="1"/>
-    <col min="48" max="48" width="12.88671875" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" customWidth="1"/>
+    <col min="47" max="47" width="20.7109375" customWidth="1"/>
+    <col min="48" max="48" width="12.85546875" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
-    <col min="50" max="50" width="20.21875" customWidth="1"/>
-    <col min="51" max="51" width="21.33203125" customWidth="1"/>
-    <col min="52" max="52" width="22.77734375" customWidth="1"/>
-    <col min="53" max="53" width="13.77734375" customWidth="1"/>
+    <col min="50" max="50" width="20.28515625" customWidth="1"/>
+    <col min="51" max="51" width="21.28515625" customWidth="1"/>
+    <col min="52" max="52" width="22.7109375" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" customWidth="1"/>
     <col min="54" max="54" width="22" customWidth="1"/>
-    <col min="55" max="55" width="23.33203125" customWidth="1"/>
-    <col min="56" max="56" width="25.88671875" customWidth="1"/>
-    <col min="57" max="57" width="8.77734375" customWidth="1"/>
-    <col min="58" max="58" width="9.33203125" customWidth="1"/>
+    <col min="55" max="55" width="23.28515625" customWidth="1"/>
+    <col min="56" max="56" width="25.85546875" customWidth="1"/>
+    <col min="57" max="57" width="8.7109375" customWidth="1"/>
+    <col min="58" max="58" width="9.28515625" customWidth="1"/>
     <col min="59" max="59" width="7" customWidth="1"/>
     <col min="60" max="60" width="8" customWidth="1"/>
-    <col min="61" max="61" width="8.77734375" customWidth="1"/>
-    <col min="62" max="62" width="12.109375" customWidth="1"/>
-    <col min="63" max="63" width="7.88671875" customWidth="1"/>
-    <col min="64" max="64" width="7.44140625" customWidth="1"/>
+    <col min="61" max="61" width="8.7109375" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" customWidth="1"/>
+    <col min="63" max="63" width="7.85546875" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" customWidth="1"/>
     <col min="65" max="65" width="11" customWidth="1"/>
-    <col min="66" max="66" width="13.88671875" customWidth="1"/>
-    <col min="67" max="67" width="4.77734375" customWidth="1"/>
-    <col min="68" max="68" width="8.21875" customWidth="1"/>
-    <col min="69" max="69" width="12.44140625" customWidth="1"/>
-    <col min="70" max="70" width="10.6640625" customWidth="1"/>
+    <col min="66" max="66" width="13.85546875" customWidth="1"/>
+    <col min="67" max="67" width="4.7109375" customWidth="1"/>
+    <col min="68" max="68" width="8.28515625" customWidth="1"/>
+    <col min="69" max="69" width="12.42578125" customWidth="1"/>
+    <col min="70" max="70" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70">

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A6C9B3-A1A8-4D57-A89A-FFCE5DBAE2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC766F-8567-4F59-8EF9-6678F469952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC766F-8567-4F59-8EF9-6678F469952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0DD9A-700B-4FEF-90DB-16AD116B333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -436,9 +436,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +476,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -582,7 +582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E991F2-9736-4307-B803-082592F10829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECD148B-EFA5-424F-B4FE-3E9EFE50FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -237,9 +237,6 @@
     <t>0.50</t>
   </si>
   <si>
-    <t>Auto_TC002</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -294,7 +291,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>5lacjjh5bnb</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -436,9 +436,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +476,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -582,7 +582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,7 +736,7 @@
   <dimension ref="A1:BR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1022,89 +1022,89 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>34</v>
@@ -1131,13 +1131,13 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECD148B-EFA5-424F-B4FE-3E9EFE50FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07823A6-AFAA-4E9B-9C69-9510CA034450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>instAmount</t>
   </si>
@@ -294,7 +294,13 @@
     <t>5lacjjh5bnb</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -735,8 +741,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2:BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1025,7 +1031,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>87</v>
@@ -1134,8 +1140,12 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
+      <c r="BG2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>90</v>
+      </c>
       <c r="BI2" s="1" t="s">
         <v>85</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 1/Auto_GeStamp_TSCD_TC1_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07823A6-AFAA-4E9B-9C69-9510CA034450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3E666-FD05-4260-8CB5-8AA11D3F7FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
